--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>##</t>
   </si>
@@ -122,11 +122,17 @@
 * Eclipse
 * Eclipse plugins
 * Maven
-* Dependencies
+* Maven Dependencies
 * Packages</t>
   </si>
   <si>
-    <t>Jun 7 2023</t>
+    <t>Jun 14 2023</t>
+  </si>
+  <si>
+    <t>Jayant, Nancy, Himanshu, Shailendra, Ankit J, Vishal, Ankit G, Pavan, Disha</t>
+  </si>
+  <si>
+    <t>Devyani, Ashok</t>
   </si>
   <si>
     <t>Karate "Hello world" demo</t>
@@ -147,6 +153,10 @@
     <t>Karate api demo, POST request</t>
   </si>
   <si>
+    <t>* Karate DSL keywords
+* request</t>
+  </si>
+  <si>
     <t>Karate api demo, PUT request</t>
   </si>
   <si>
@@ -163,19 +173,22 @@
 * Given, When, And, Then keywords
 * tags
 * star(*) keyword
-* print keyword
-* def keyword</t>
+* print keyword</t>
   </si>
   <si>
     <t>Karate Single line, multi line comments</t>
   </si>
   <si>
-    <t>Karate variables + concetanate</t>
-  </si>
-  <si>
-    <t>* Print variable
+    <t>Karate variables + concetanate + calculations</t>
+  </si>
+  <si>
+    <t>* def keyword
+* Print variable
 * Do math
 * Print message + result</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
   <si>
     <t>Karate json handling</t>
@@ -185,6 +198,30 @@
 * Multi line json
 * Json from external file
 * Fetch any key:value from the json and store in variable</t>
+  </si>
+  <si>
+    <t>Jun 20 2023</t>
+  </si>
+  <si>
+    <t>Parallel Execution</t>
+  </si>
+  <si>
+    <t>Config parameters</t>
+  </si>
+  <si>
+    <t>Scenario outline with example</t>
+  </si>
+  <si>
+    <t>Type / String coversion</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>Call</t>
   </si>
 </sst>
 </file>
@@ -192,12 +229,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +258,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,63 +273,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,29 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -336,6 +336,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -343,8 +358,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,16 +605,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +634,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -619,35 +658,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,160 +704,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1152,12 +1179,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1172,28 +1199,28 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1220,7 +1247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="2:5">
+    <row r="3" ht="86.4" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1230,104 +1257,190 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="100.8" spans="2:5">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="3:5">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="3:5">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="129.6" spans="2:5">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="115.2" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" ht="43.2" spans="2:5">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="2:6">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="57.6" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -203,6 +203,56 @@
     <t>Jun 20 2023</t>
   </si>
   <si>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit G, Pavan</t>
+  </si>
+  <si>
+    <t>Devyani, Ashok, Nancy, Ankit J, Disha</t>
+  </si>
+  <si>
+    <t>Karate json response verification</t>
+  </si>
+  <si>
+    <t>* Matching individual data
+* Matching whole json object</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>* Manipulating data
+* Set single/multiple in json
+* remove in json
+* delete in json</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>* header verification
+* contains &amp; not-contains check</t>
+  </si>
+  <si>
+    <t>Jun 21 2023</t>
+  </si>
+  <si>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit G, Ankit J, Pavan, Ashok, Nancy</t>
+  </si>
+  <si>
+    <t>Devyani, Disha</t>
+  </si>
+  <si>
+    <t>* equality check using match
+* non-equality check using match
+* Fuzzy matching(dynamic)
+* Self validation expressions(javascript)</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
     <t>Parallel Execution</t>
   </si>
   <si>
@@ -212,13 +262,10 @@
     <t>Scenario outline with example</t>
   </si>
   <si>
-    <t>Type / String coversion</t>
-  </si>
-  <si>
-    <t>Match</t>
-  </si>
-  <si>
-    <t>Assert</t>
+    <t>Type / String conversion</t>
+  </si>
+  <si>
+    <t>Calling other feature/scenarios</t>
   </si>
   <si>
     <t>Call</t>
@@ -229,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -251,6 +298,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -267,23 +322,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +382,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -344,6 +397,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -373,23 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,19 +457,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,163 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,21 +648,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,6 +700,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -704,49 +751,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,101 +802,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -858,6 +905,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,12 +1229,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1194,7 +1244,7 @@
     <col min="4" max="4" width="82.8888888888889" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.2222222222222" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.8888888888889" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.2222222222222" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1224,7 +1274,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="96" customHeight="1" spans="2:8">
+    <row r="2" ht="96" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1300,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="2:8">
+    <row r="3" ht="86.4" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1326,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1343,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="2:6">
+    <row r="5" ht="100.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1363,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="2:6">
+    <row r="6" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1383,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1400,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1417,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="115.2" spans="2:6">
+    <row r="9" ht="115.2" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1437,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1454,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="2:6">
+    <row r="11" ht="57.6" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1474,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="57.6" spans="2:5">
+    <row r="12" ht="57.6" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1407,40 +1490,136 @@
       <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="57.6" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="57.6" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>##</t>
   </si>
@@ -250,15 +250,66 @@
 * Self validation expressions(javascript)</t>
   </si>
   <si>
-    <t>Assert</t>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>* Understading the LHS and RHS of the syntax
+* Schema validation
+* matching array length
+* match text or binary
+* match karate.lowerCase()</t>
+  </si>
+  <si>
+    <t>Jun 28 2023</t>
+  </si>
+  <si>
+    <t>Shailendra, Vishal, Ankit G, Ankit J, Pavan, Ashok</t>
+  </si>
+  <si>
+    <t>Devyani, Disha, Jayant, Himanshu, Nancy</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>* match contains only
+* match contains any
+* match each</t>
+  </si>
+  <si>
+    <t>Jul 4 2023</t>
+  </si>
+  <si>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit J, Pavan, Ashok</t>
+  </si>
+  <si>
+    <t>Ankit G, Nancy, Devyani, Disha, Nancy</t>
   </si>
   <si>
     <t>Parallel Execution</t>
   </si>
   <si>
+    <t>* run scenarios in parallel
+* ignore scenarios
+* set env</t>
+  </si>
+  <si>
+    <t>Passing headers in request</t>
+  </si>
+  <si>
+    <t>* Passing headers in request individually using key:value pairs
+* Passing headers in request as json
+* configure headers</t>
+  </si>
+  <si>
     <t>Config parameters</t>
   </si>
   <si>
+    <t>* set timeouts
+* set env
+* set global variable</t>
+  </si>
+  <si>
     <t>Scenario outline with example</t>
   </si>
   <si>
@@ -266,6 +317,9 @@
   </si>
   <si>
     <t>Calling other feature/scenarios</t>
+  </si>
+  <si>
+    <t>Dynamic data passing in request payload</t>
   </si>
   <si>
     <t>Call</t>
@@ -276,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -298,6 +352,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -306,20 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -329,7 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +427,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -382,13 +458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -399,21 +468,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,15 +483,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,37 +511,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,145 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +702,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -693,23 +762,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,171 +802,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,9 +1286,9 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1586,40 +1640,124 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="17" ht="72" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="43.2" spans="1:6">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:4">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>##</t>
   </si>
@@ -280,13 +280,13 @@
     <t>Jul 4 2023</t>
   </si>
   <si>
-    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit J, Pavan, Ashok</t>
-  </si>
-  <si>
-    <t>Ankit G, Nancy, Devyani, Disha, Nancy</t>
-  </si>
-  <si>
-    <t>Parallel Execution</t>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit J, Pavan, Ashok, Devyani</t>
+  </si>
+  <si>
+    <t>Ankit G, Nancy, Disha</t>
+  </si>
+  <si>
+    <t>Parallel Execution using Junit5 Java class</t>
   </si>
   <si>
     <t>* run scenarios in parallel
@@ -294,6 +294,9 @@
 * set env</t>
   </si>
   <si>
+    <t>S7</t>
+  </si>
+  <si>
     <t>Passing headers in request</t>
   </si>
   <si>
@@ -302,27 +305,51 @@
 * configure headers</t>
   </si>
   <si>
+    <t>Jul 5 2023</t>
+  </si>
+  <si>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Ankit J, Ashok, Nancy</t>
+  </si>
+  <si>
+    <t>Ankit G, Disha, Devyani, Pavan</t>
+  </si>
+  <si>
     <t>Config parameters</t>
   </si>
   <si>
-    <t>* set timeouts
-* set env
-* set global variable</t>
-  </si>
-  <si>
-    <t>Scenario outline with example</t>
-  </si>
-  <si>
-    <t>Type / String conversion</t>
+    <t>* set env
+* set global variable
+* set timeouts</t>
+  </si>
+  <si>
+    <t>Dynamic data passing in request payload</t>
+  </si>
+  <si>
+    <t>* passing token in request header
+* Using js function
+* Accessing json file stored in other folders</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Few important topics</t>
+  </si>
+  <si>
+    <t>* Type conversion &gt; string to number
+* Commonly Needed Utilities - Calling java codes in karate scripts</t>
+  </si>
+  <si>
+    <t>Jul 12 2023</t>
   </si>
   <si>
     <t>Calling other feature/scenarios</t>
   </si>
   <si>
-    <t>Dynamic data passing in request payload</t>
-  </si>
-  <si>
-    <t>Call</t>
+    <t>Data driven testing</t>
+  </si>
+  <si>
+    <t>* Scenario outline with example</t>
   </si>
 </sst>
 </file>
@@ -331,11 +358,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,10 +379,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,7 +395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +416,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -389,10 +431,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,8 +470,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,30 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,16 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,25 +546,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,43 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,109 +672,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,28 +797,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,155 +817,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -962,6 +997,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1283,12 +1321,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1712,52 +1750,119 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="1:5">
+    <row r="20" ht="43.2" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="43.2" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:6">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>##</t>
   </si>
@@ -336,20 +336,32 @@
     <t>Few important topics</t>
   </si>
   <si>
-    <t>* Type conversion &gt; string to number
+    <t>* Not Contains check within array
+* Type conversion &gt; string to number
 * Commonly Needed Utilities - Calling java codes in karate scripts</t>
   </si>
   <si>
-    <t>Jul 12 2023</t>
+    <t>Jul 11 2023</t>
+  </si>
+  <si>
+    <t>Jayant, Himanshu, Shailendra, Vishal, Pavan, Ankit G, Devyani</t>
+  </si>
+  <si>
+    <t>Ankit J, Disha, Ashok, Nancy</t>
   </si>
   <si>
     <t>Calling other feature/scenarios</t>
   </si>
   <si>
+    <t>* Calling entire feature file  &amp; passing data
+* Calling individual scenario &amp; passing data</t>
+  </si>
+  <si>
     <t>Data driven testing</t>
   </si>
   <si>
-    <t>* Scenario outline with example</t>
+    <t>* Scenario outline with example
+* If else in match(nested)</t>
   </si>
 </sst>
 </file>
@@ -357,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,79 +391,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,7 +507,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,29 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -546,31 +550,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,55 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,31 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,67 +734,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,6 +824,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -817,175 +856,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -993,13 +1012,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1324,16 +1346,17 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="33.5555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.8888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="27.2222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.2222222222222" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.6666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.2222222222222" style="2" customWidth="1"/>
@@ -1341,529 +1364,582 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="96" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="100.8" spans="1:6">
-      <c r="A5" s="2">
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="100.8" spans="1:8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:6">
-      <c r="A6" s="2">
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="28.8" spans="1:8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="115.2" spans="1:6">
-      <c r="A9" s="2">
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="115.2" spans="1:8">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="57.6" spans="1:6">
-      <c r="A11" s="2">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="57.6" spans="1:8">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" ht="57.6" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" ht="28.8" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="57.6" spans="1:6">
-      <c r="A14" s="2">
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="57.6" spans="1:8">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" ht="43.2" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="57.6" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16" ht="57.6" spans="1:8">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" ht="72" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:8">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="43.2" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19" ht="43.2" spans="1:8">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" ht="43.2" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21" ht="43.2" spans="1:8">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="43.2" spans="1:6">
-      <c r="A22" s="2">
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:8">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:5">
-      <c r="A23" s="2">
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" ht="43.2" spans="1:8">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:8">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" ht="28.8" spans="1:8">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
